--- a/pred_ohlcv/54_21/2020-01-12 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 LTC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>2477.02522606</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>2521.06142606</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>2874.74052606</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>2562.321526060001</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>2611.312126060001</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>3285.283826060001</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>2959.820026060001</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1777.692826060001</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1777.692826060001</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1837.057826060001</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1837.057826060001</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>1566.087726060001</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>1751.926926060001</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>1884.860726060001</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>1888.718027480001</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1758.648927480001</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1700.586827480001</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1748.773527480001</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1748.773527480001</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1852.872527480001</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1852.351727480001</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1852.351727480001</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>1796.370727480001</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1799.287027480001</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>2013.614327480001</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1991.695827480001</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>2453.383027480001</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>2449.222327480001</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>2450.699127480001</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>2698.361427480001</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>4464.496804710005</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>4414.348804710005</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>4434.821804710004</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>4436.164804710004</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>4436.164804710004</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>4425.419404710005</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>4425.419404710005</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>4482.354704710005</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>4531.851504710005</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>4560.943204710004</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>4417.361113560004</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>4423.625113560004</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>4368.522713560004</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>4368.522713560004</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>4402.521313560004</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>4346.462113560005</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>4354.852513560005</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>4353.852513560005</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>4353.852513560005</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>4353.852513560005</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>4353.852513560005</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>4341.681013560004</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>3775.816813560004</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>3779.964613560005</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>3704.457513560005</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>3850.698413560005</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>3858.041313560005</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>3857.111313560005</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>3857.234813560005</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>3856.262713560005</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>3230.742110100007</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>3430.916710100007</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>3701.059210100007</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-12 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 LTC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>2477.02522606</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>2521.06142606</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>2874.74052606</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>2562.321526060001</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>2611.312126060001</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>3285.283826060001</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>2959.820026060001</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>1566.087726060001</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>1751.926926060001</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>1884.860726060001</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>1903.855826060001</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>1903.855826060001</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>1976.708826060001</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>1982.097526060001</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>1961.159226060001</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>1940.350826060002</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1943.355332840001</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>1882.767525400001</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>1882.767525400001</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1902.767525400001</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>1903.523427480001</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>1893.374827480001</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>1889.383027480001</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>1889.723727480001</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>1888.016527480001</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>1888.660227480001</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>1888.718027480001</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>1888.718027480001</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>1888.718027480001</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>1890.954027480002</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>1919.116727480002</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>1919.116727480002</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1917.031927480002</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1817.728727480001</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1758.648927480001</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1700.586827480001</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1748.773527480001</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1748.773527480001</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1852.872527480001</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1852.351727480001</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1852.351727480001</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>1796.370727480001</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1799.287027480001</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>2013.614327480001</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1991.695827480001</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>2453.383027480001</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>2453.383027480001</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>2449.222327480001</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>2450.699127480001</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>2476.699127480001</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>2698.361427480001</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>4464.496804710005</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>4414.348804710005</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>4434.821804710004</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>4436.164804710004</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>4425.419404710005</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>4482.354704710005</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>4560.943204710004</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>4417.361113560004</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>4423.625113560004</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>4368.522713560004</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>4368.522713560004</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>4402.521313560004</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>4346.462113560005</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>4354.852513560005</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>4353.852513560005</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>4353.852513560005</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>4353.852513560005</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>4353.852513560005</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>4341.681013560004</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>3775.816813560004</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>3779.964613560005</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>3850.698413560005</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>3857.111313560005</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>3230.742110100007</v>
       </c>
       <c r="H638">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>3430.916710100007</v>
       </c>
       <c r="H639">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>3701.059210100007</v>
       </c>
       <c r="H641">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
